--- a/templates/ProjectDefinition.xlsx
+++ b/templates/ProjectDefinition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rparygin\Documents\GitHub\PipeCAD\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AA49X\Desktop\myfile\3dCAD\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC7EE0-8FA6-486D-A828-0E3A45320DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BFB8F1-FF74-4D2A-B2A7-92C622AB9FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E69E825-942A-412B-8025-08F9A089319F}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10044" activeTab="2" xr2:uid="{3E69E825-942A-412B-8025-08F9A089319F}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="301">
   <si>
     <t>#Keyword</t>
   </si>
@@ -923,6 +923,24 @@
   </si>
   <si>
     <t xml:space="preserve">TEAM_0001 TEAM_0002 TEAM_0003 TEAM_0004 TEAM_0005 TEAM_0006 TEAM_0007 TEAM_0008 </t>
+  </si>
+  <si>
+    <t>DESI-MODULE-010</t>
+  </si>
+  <si>
+    <t>TEST DB FOR MODULE 001 - TEAM 0018</t>
+  </si>
+  <si>
+    <t>MODULE-001/018</t>
+  </si>
+  <si>
+    <t>DESI-MODULE-011</t>
+  </si>
+  <si>
+    <t>TEST DB FOR MODULE 001 - TEAM 0019</t>
+  </si>
+  <si>
+    <t>MODULE-001/019</t>
   </si>
 </sst>
 </file>
@@ -933,7 +951,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -941,14 +959,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1003,9 +1021,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1043,7 +1061,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1149,7 +1167,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1291,7 +1309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1301,13 +1319,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC48565B-B093-49DD-96E4-3B164CAE14DE}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -2449,15 +2467,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2647,20 +2665,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71682F7E-2EEC-4E2C-BE43-BDBDC388582D}">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3129,6 +3147,58 @@
       </c>
       <c r="H18" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
@@ -3149,12 +3219,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="141.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="141.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
